--- a/RTTColumns.xlsx
+++ b/RTTColumns.xlsx
@@ -50675,39 +50675,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -50715,15 +50728,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -50731,39 +50747,51 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -50771,7 +50799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -50779,7 +50807,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -50787,15 +50815,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -50803,7 +50834,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -50811,15 +50842,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -50827,71 +50861,95 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
@@ -50899,15 +50957,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -50915,191 +50976,260 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
@@ -51107,7 +51237,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
@@ -51115,31 +51245,40 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>58</v>
       </c>
@@ -51147,7 +51286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
@@ -51155,23 +51294,29 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
@@ -51179,7 +51324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>63</v>
       </c>
@@ -51187,7 +51332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>64</v>
       </c>
@@ -51195,7 +51340,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>65</v>
       </c>
@@ -51203,15 +51348,18 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>67</v>
       </c>
@@ -51219,15 +51367,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>69</v>
       </c>
@@ -51235,15 +51386,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>71</v>
       </c>
@@ -51251,15 +51405,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>73</v>
       </c>
@@ -51267,87 +51424,117 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>84</v>
       </c>
@@ -51355,7 +51542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>85</v>
       </c>
@@ -51363,7 +51550,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>86</v>
       </c>
@@ -51371,7 +51558,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
@@ -51379,7 +51566,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>88</v>
       </c>
@@ -51387,7 +51574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
@@ -51395,7 +51582,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
@@ -51403,32 +51590,32 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>185</v>
       </c>
@@ -51614,6 +51801,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S1" location="'My claims'!P4" display="'My claims'!P4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
